--- a/inspection/jmonkeyengine.xlsx
+++ b/inspection/jmonkeyengine.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9CA588-DFE8-4D01-BDA2-CE3234128812}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -299,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,20 +649,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="109.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="110.44140625" customWidth="1"/>
+    <col min="1" max="1" width="109.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="110.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -669,7 +676,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -685,7 +692,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -699,7 +706,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -713,7 +720,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -727,7 +734,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -741,7 +748,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -753,7 +760,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -767,7 +774,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -781,7 +788,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -799,7 +806,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -811,7 +818,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -825,7 +832,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>74</v>
       </c>
@@ -833,11 +840,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -845,11 +852,11 @@
         <v>1</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -863,7 +870,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -877,7 +884,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>77</v>
       </c>
@@ -889,7 +896,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -901,7 +908,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -915,7 +922,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -929,7 +936,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -943,7 +950,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -957,7 +964,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -971,7 +978,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -985,7 +992,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -999,7 +1006,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -1013,7 +1020,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1027,7 +1034,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -1041,7 +1048,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>78</v>
       </c>
@@ -1053,7 +1060,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1067,7 +1074,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1081,7 +1088,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1095,7 +1102,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1107,7 +1114,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1121,7 +1128,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1142,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1149,7 +1156,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
@@ -1161,7 +1168,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -1169,11 +1176,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -1187,7 +1194,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -1201,7 +1208,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -1215,7 +1222,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -1229,7 +1236,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -1243,7 +1250,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -1257,7 +1264,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -1271,7 +1278,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -1285,7 +1292,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -1299,7 +1306,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1313,7 +1320,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -1327,7 +1334,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -1341,7 +1348,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -1353,7 +1360,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -1367,7 +1374,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
@@ -1381,7 +1388,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>80</v>
       </c>
@@ -1393,7 +1400,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -1407,7 +1414,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
@@ -1421,7 +1428,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
@@ -1435,7 +1442,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
@@ -1449,7 +1456,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -1463,7 +1470,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>57</v>
       </c>
@@ -1477,7 +1484,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
@@ -1491,7 +1498,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
@@ -1505,7 +1512,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>60</v>
       </c>
@@ -1519,7 +1526,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>61</v>
       </c>
@@ -1533,7 +1540,7 @@
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>62</v>
       </c>
@@ -1547,7 +1554,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -1561,7 +1568,7 @@
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>64</v>
       </c>
@@ -1575,7 +1582,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>65</v>
       </c>
@@ -1589,7 +1596,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>66</v>
       </c>
@@ -1603,7 +1610,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>67</v>
       </c>
@@ -1617,7 +1624,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
@@ -1631,7 +1638,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>69</v>
       </c>
@@ -1645,7 +1652,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>70</v>
       </c>
@@ -1659,7 +1666,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>71</v>
       </c>
@@ -1673,7 +1680,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>72</v>
       </c>
@@ -1687,7 +1694,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>81</v>
       </c>
@@ -1708,7 +1715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>82</v>
       </c>
@@ -1721,7 +1728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>83</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>84</v>
       </c>
@@ -1755,7 +1762,7 @@
         <v>0.88405797101449279</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>85</v>
       </c>
